--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N2">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q2">
-        <v>270.0027617753436</v>
+        <v>30.798074197696</v>
       </c>
       <c r="R2">
-        <v>2430.024855978093</v>
+        <v>277.182667779264</v>
       </c>
       <c r="S2">
-        <v>0.04743372348041777</v>
+        <v>0.009295343818493038</v>
       </c>
       <c r="T2">
-        <v>0.04743372348041777</v>
+        <v>0.009295343818493038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q3">
-        <v>50.12650768291167</v>
+        <v>21.02849202037333</v>
       </c>
       <c r="R3">
-        <v>451.138569146205</v>
+        <v>189.25642818336</v>
       </c>
       <c r="S3">
-        <v>0.008806157717929673</v>
+        <v>0.006346730060427945</v>
       </c>
       <c r="T3">
-        <v>0.008806157717929673</v>
+        <v>0.006346730060427945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N4">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q4">
-        <v>42.461938896675</v>
+        <v>23.918158562304</v>
       </c>
       <c r="R4">
-        <v>382.157450070075</v>
+        <v>215.263427060736</v>
       </c>
       <c r="S4">
-        <v>0.007459656541376924</v>
+        <v>0.007218876930898527</v>
       </c>
       <c r="T4">
-        <v>0.007459656541376924</v>
+        <v>0.007218876930898527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N5">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O5">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P5">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q5">
-        <v>325.9065486003614</v>
+        <v>80.19456831923199</v>
       </c>
       <c r="R5">
-        <v>2933.158937403252</v>
+        <v>721.7511148730879</v>
       </c>
       <c r="S5">
-        <v>0.05725482585852042</v>
+        <v>0.02420398366851966</v>
       </c>
       <c r="T5">
-        <v>0.05725482585852042</v>
+        <v>0.02420398366851966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N6">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q6">
-        <v>861.6495479830577</v>
+        <v>234.2854603696534</v>
       </c>
       <c r="R6">
-        <v>7754.84593184752</v>
+        <v>2108.56914332688</v>
       </c>
       <c r="S6">
-        <v>0.1513734382837992</v>
+        <v>0.07071104160054173</v>
       </c>
       <c r="T6">
-        <v>0.1513734382837992</v>
+        <v>0.07071104160054173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q7">
         <v>159.9668181279111</v>
@@ -883,10 +883,10 @@
         <v>1439.7013631512</v>
       </c>
       <c r="S7">
-        <v>0.02810275630971167</v>
+        <v>0.04828050495964183</v>
       </c>
       <c r="T7">
-        <v>0.02810275630971167</v>
+        <v>0.04828050495964183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N8">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q8">
-        <v>135.507171172</v>
+        <v>181.94893466368</v>
       </c>
       <c r="R8">
-        <v>1219.564540548</v>
+        <v>1637.54041197312</v>
       </c>
       <c r="S8">
-        <v>0.02380571829977943</v>
+        <v>0.05491505391703862</v>
       </c>
       <c r="T8">
-        <v>0.02380571829977943</v>
+        <v>0.05491505391703861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N9">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O9">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P9">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q9">
-        <v>1040.053177381476</v>
+        <v>610.0518245787733</v>
       </c>
       <c r="R9">
-        <v>9360.47859643328</v>
+        <v>5490.46642120896</v>
       </c>
       <c r="S9">
-        <v>0.1827151488987024</v>
+        <v>0.184123248101757</v>
       </c>
       <c r="T9">
-        <v>0.1827151488987025</v>
+        <v>0.184123248101757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N10">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q10">
-        <v>1100.61739712187</v>
+        <v>389.2381969883247</v>
       </c>
       <c r="R10">
-        <v>9905.556574096832</v>
+        <v>3503.143772894922</v>
       </c>
       <c r="S10">
-        <v>0.1933549898880456</v>
+        <v>0.1174782177960812</v>
       </c>
       <c r="T10">
-        <v>0.1933549898880456</v>
+        <v>0.1174782177960812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>22.794685</v>
       </c>
       <c r="O11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q11">
-        <v>204.3316373877689</v>
+        <v>265.766367950559</v>
       </c>
       <c r="R11">
-        <v>1838.98473648992</v>
+        <v>2391.89731155503</v>
       </c>
       <c r="S11">
-        <v>0.03589670832410539</v>
+        <v>0.08021247528773678</v>
       </c>
       <c r="T11">
-        <v>0.03589670832410539</v>
+        <v>0.08021247528773678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N12">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q12">
-        <v>173.0884097552</v>
+        <v>302.2871123145921</v>
       </c>
       <c r="R12">
-        <v>1557.7956877968</v>
+        <v>2720.584010831328</v>
       </c>
       <c r="S12">
-        <v>0.03040793994849852</v>
+        <v>0.09123501108630226</v>
       </c>
       <c r="T12">
-        <v>0.03040793994849852</v>
+        <v>0.09123501108630225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H13">
+        <v>104.932238</v>
+      </c>
+      <c r="I13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>28.976716</v>
+      </c>
+      <c r="N13">
+        <v>86.930148</v>
+      </c>
+      <c r="O13">
+        <v>0.5142678713312377</v>
+      </c>
+      <c r="P13">
+        <v>0.5142678713312377</v>
+      </c>
+      <c r="Q13">
+        <v>1013.530553256803</v>
+      </c>
+      <c r="R13">
+        <v>9121.774979311225</v>
+      </c>
+      <c r="S13">
+        <v>0.3058994826298017</v>
+      </c>
+      <c r="T13">
+        <v>0.3058994826298017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H13">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>49.40125466666667</v>
-      </c>
-      <c r="N13">
-        <v>148.203764</v>
-      </c>
-      <c r="O13">
-        <v>0.4733589112063359</v>
-      </c>
-      <c r="P13">
-        <v>0.473358911206336</v>
-      </c>
-      <c r="Q13">
-        <v>1328.499067442717</v>
-      </c>
-      <c r="R13">
-        <v>11956.49160698445</v>
-      </c>
-      <c r="S13">
-        <v>0.2333889364491131</v>
-      </c>
-      <c r="T13">
-        <v>0.2333889364491131</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.128273</v>
+      </c>
+      <c r="N14">
+        <v>33.384819</v>
+      </c>
+      <c r="O14">
+        <v>0.1975004092010595</v>
+      </c>
+      <c r="P14">
+        <v>0.1975004092010595</v>
+      </c>
+      <c r="Q14">
+        <v>0.052369652738</v>
+      </c>
+      <c r="R14">
+        <v>0.471326874642</v>
+      </c>
+      <c r="S14">
+        <v>1.580598594347215E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.580598594347215E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.598228333333334</v>
+      </c>
+      <c r="N15">
+        <v>22.794685</v>
+      </c>
+      <c r="O15">
+        <v>0.1348505024127659</v>
+      </c>
+      <c r="P15">
+        <v>0.1348505024127659</v>
+      </c>
+      <c r="Q15">
+        <v>0.03575726253666667</v>
+      </c>
+      <c r="R15">
+        <v>0.32181536283</v>
+      </c>
+      <c r="S15">
+        <v>1.079210495931925E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.079210495931925E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.642352000000001</v>
+      </c>
+      <c r="N16">
+        <v>25.927056</v>
+      </c>
+      <c r="O16">
+        <v>0.153381217054937</v>
+      </c>
+      <c r="P16">
+        <v>0.153381217054937</v>
+      </c>
+      <c r="Q16">
+        <v>0.040670908512</v>
+      </c>
+      <c r="R16">
+        <v>0.366038176608</v>
+      </c>
+      <c r="S16">
+        <v>1.227512069757261E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.227512069757261E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>28.976716</v>
+      </c>
+      <c r="N17">
+        <v>86.930148</v>
+      </c>
+      <c r="O17">
+        <v>0.5142678713312377</v>
+      </c>
+      <c r="P17">
+        <v>0.5142678713312377</v>
+      </c>
+      <c r="Q17">
+        <v>0.136364425496</v>
+      </c>
+      <c r="R17">
+        <v>1.227279829464</v>
+      </c>
+      <c r="S17">
+        <v>4.115693115939775E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.115693115939775E-05</v>
       </c>
     </row>
   </sheetData>
